--- a/analysis/Distance_From_Last_Transaction.xlsx
+++ b/analysis/Distance_From_Last_Transaction.xlsx
@@ -477,129 +477,129 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27.33942754682685</v>
+        <v>27.22911569576429</v>
       </c>
       <c r="B2" t="n">
-        <v>3.288090108749923</v>
+        <v>3.904276332500044</v>
       </c>
       <c r="C2" t="n">
-        <v>1.852298611885016</v>
+        <v>1.814138788649767</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8783612780765581</v>
+        <v>0.8883371447239464</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8388168301170515</v>
+        <v>0.8395295655014701</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2445428661815881</v>
+        <v>0.2446912773603398</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6436254349889275</v>
+        <v>0.6495262985952304</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0512496045555204</v>
+        <v>0.05285854295981705</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>31.26660673287307</v>
+        <v>14.63309813159418</v>
       </c>
       <c r="B3" t="n">
-        <v>72.86292604416209</v>
+        <v>135.5264646602652</v>
       </c>
       <c r="C3" t="n">
-        <v>1.388347244376977</v>
+        <v>1.709083469384352</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="E3" t="n">
-        <v>0.75</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3125</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="H3" t="n">
-        <v>0.125</v>
+        <v>0.2037037037037037</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11.60135993695927</v>
+        <v>17.99034063302234</v>
       </c>
       <c r="B4" t="n">
-        <v>131.2499444709936</v>
+        <v>248.8642758989043</v>
       </c>
       <c r="C4" t="n">
-        <v>1.536803732590431</v>
+        <v>2.669600371357467</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.25</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20.92130562997422</v>
+        <v>46.83495593014784</v>
       </c>
       <c r="B5" t="n">
-        <v>178.9172543905553</v>
+        <v>343.8348744311859</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7168371077375174</v>
+        <v>2.06558845109983</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>34.46618967015002</v>
+        <v>1.75392155554216</v>
       </c>
       <c r="B6" t="n">
-        <v>254.2209286160578</v>
+        <v>415.2799598926444</v>
       </c>
       <c r="C6" t="n">
-        <v>2.491826868802951</v>
+        <v>0.548588933417079</v>
       </c>
       <c r="D6" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -607,25 +607,25 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17.38168075335678</v>
+        <v>4.118134244394675</v>
       </c>
       <c r="B7" t="n">
-        <v>280.4636074134255</v>
+        <v>566.7133025186068</v>
       </c>
       <c r="C7" t="n">
-        <v>17.19554643714331</v>
+        <v>0.7461810768697438</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -633,28 +633,28 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>92.79309735225088</v>
+        <v>2.289803751872729</v>
       </c>
       <c r="B8" t="n">
-        <v>351.6484481810634</v>
+        <v>663.1394334503468</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5203013167171617</v>
+        <v>1.435886974635555</v>
       </c>
       <c r="D8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.5</v>
-      </c>
       <c r="F8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0.5</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -679,25 +679,25 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10.05670103184802</v>
+        <v>0.4218645997623428</v>
       </c>
       <c r="B11" t="n">
-        <v>556.3849890671826</v>
+        <v>1012.837428877507</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4685734141423322</v>
+        <v>2.707815945638828</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>

--- a/analysis/Distance_From_Last_Transaction.xlsx
+++ b/analysis/Distance_From_Last_Transaction.xlsx
@@ -477,129 +477,129 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27.22911569576429</v>
+        <v>27.31356792161597</v>
       </c>
       <c r="B2" t="n">
-        <v>3.904276332500044</v>
+        <v>3.31480089993669</v>
       </c>
       <c r="C2" t="n">
-        <v>1.814138788649767</v>
+        <v>1.846444986178565</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8883371447239464</v>
+        <v>0.8782663120012517</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8395295655014701</v>
+        <v>0.8378970427163198</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2446912773603398</v>
+        <v>0.2448756063213895</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6495262985952304</v>
+        <v>0.6449694883429823</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05285854295981705</v>
+        <v>0.0510092317321233</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14.63309813159418</v>
+        <v>31.26660673287307</v>
       </c>
       <c r="B3" t="n">
-        <v>135.5264646602652</v>
+        <v>72.86292604416209</v>
       </c>
       <c r="C3" t="n">
-        <v>1.709083469384352</v>
+        <v>1.388347244376977</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8518518518518519</v>
+        <v>0.75</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.3125</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6481481481481481</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2037037037037037</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17.99034063302234</v>
+        <v>11.60135993695927</v>
       </c>
       <c r="B4" t="n">
-        <v>248.8642758989043</v>
+        <v>131.2499444709936</v>
       </c>
       <c r="C4" t="n">
-        <v>2.669600371357467</v>
+        <v>1.536803732590431</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="F4" t="n">
-        <v>0.25</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G4" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>46.83495593014784</v>
+        <v>20.92130562997422</v>
       </c>
       <c r="B5" t="n">
-        <v>343.8348744311859</v>
+        <v>178.9172543905553</v>
       </c>
       <c r="C5" t="n">
-        <v>2.06558845109983</v>
+        <v>0.7168371077375174</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.75392155554216</v>
+        <v>34.46618967015002</v>
       </c>
       <c r="B6" t="n">
-        <v>415.2799598926444</v>
+        <v>254.2209286160578</v>
       </c>
       <c r="C6" t="n">
-        <v>0.548588933417079</v>
+        <v>2.491826868802951</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -607,25 +607,25 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.118134244394675</v>
+        <v>17.38168075335678</v>
       </c>
       <c r="B7" t="n">
-        <v>566.7133025186068</v>
+        <v>280.4636074134255</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7461810768697438</v>
+        <v>17.19554643714331</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -633,28 +633,28 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.289803751872729</v>
+        <v>92.79309735225088</v>
       </c>
       <c r="B8" t="n">
-        <v>663.1394334503468</v>
+        <v>351.6484481810634</v>
       </c>
       <c r="C8" t="n">
-        <v>1.435886974635555</v>
+        <v>0.5203013167171617</v>
       </c>
       <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.5</v>
       </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G8" t="n">
         <v>0.5</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
@@ -679,25 +679,25 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4218645997623428</v>
+        <v>10.05670103184802</v>
       </c>
       <c r="B11" t="n">
-        <v>1012.837428877507</v>
+        <v>556.3849890671826</v>
       </c>
       <c r="C11" t="n">
-        <v>2.707815945638828</v>
+        <v>0.4685734141423322</v>
       </c>
       <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
         <v>0</v>
       </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
